--- a/document/Sitemap_조동현.xlsx
+++ b/document/Sitemap_조동현.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi-guro\Desktop\기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\조동현\Desktop\gitbash1\Github\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98883FAD-8283-40B3-AE2E-1B0305834C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="8040"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Web Site 메뉴 구조</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,46 +279,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/myPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myPage.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeUserInfo.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 정보 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 정보 수정/변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 정보</t>
+    <t>addRvn.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 매출 입력 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -715,13 +692,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,14 +803,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -818,10 +818,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -841,6 +841,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,350 +1127,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="2:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+    <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="28"/>
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="11" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="28"/>
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="5" t="s">
+    <row r="9" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="30"/>
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="F10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="9" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="14" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="14" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="15" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36" t="s">
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
+    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="F17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -1474,27 +1462,27 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -1504,9 +1492,9 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="27"/>
@@ -1514,9 +1502,9 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
@@ -1524,9 +1512,19 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
